--- a/data/khach_hang.xlsx
+++ b/data/khach_hang.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\ChatMekomed\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{782E6F8E-827C-4909-8856-379358572600}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CCF46A-9E17-44A7-9656-C08032B62778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="khach_hang" sheetId="1" r:id="rId1"/>
@@ -20,36 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>MaKH	HoTen	GioiTinh	NamSinh</t>
+    <t>MaKH</t>
   </si>
   <si>
-    <t>KH001	Nguy?n Thanh Tâm	Nam	1979</t>
+    <t>HoTen</t>
   </si>
   <si>
-    <t>KH002	Lê Minh Hoàng	Nam	1945</t>
+    <t>GioiTinh</t>
   </si>
   <si>
-    <t>KH003	Tr?n Th? T? Nga	N?	1961</t>
+    <t>NamSinh</t>
   </si>
   <si>
-    <t>KH004	Lý Minh ??t	Nam	2006</t>
+    <t>KH001</t>
   </si>
   <si>
-    <t>KH005	Tr?n Hoàng 	Nam	2002</t>
+    <t>Hoang Mai</t>
   </si>
   <si>
-    <t>KH006	Ph?n Th? Minh Lan	N?	1980</t>
+    <t>Nam</t>
   </si>
   <si>
-    <t>KH007	Hu?nh B?o Trân	N?	2009</t>
+    <t>KH002</t>
+  </si>
+  <si>
+    <t>Mai Lan Thanh</t>
+  </si>
+  <si>
+    <t>Nu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,54 +889,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1945</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1968</v>
       </c>
     </row>
   </sheetData>
